--- a/docs/Mapping_casi_uso/cittadinanza/Citt_006.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_006.xlsx
@@ -1541,7 +1541,7 @@
         <v>78</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>122</v>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_006.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_006.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="125">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -60,6 +63,9 @@
   </si>
   <si>
     <t>numeroatto</t>
+  </si>
+  <si>
+    <t>obbligatoria</t>
   </si>
   <si>
     <t>Data formazione</t>
@@ -439,7 +445,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:H73"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -451,6 +457,7 @@
     <col min="4" max="4" width="49.65234375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="24.609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -472,45 +479,54 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -532,1145 +548,1595 @@
       <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G4" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="E35" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="C66" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E61" s="2" t="s">
+      <c r="C72" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F61" s="2" t="s">
-        <v>9</v>
+      <c r="F72" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_006.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_006.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="125">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>
@@ -445,7 +445,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H73"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -457,7 +457,7 @@
     <col min="4" max="4" width="49.65234375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="24.609375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="28.44921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1704,19 +1704,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1727,19 +1727,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1750,19 +1750,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1773,19 +1773,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1796,19 +1796,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1819,19 +1819,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1842,300 +1842,24 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G73" s="2" t="s">
         <v>17</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_006.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_006.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="126">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,25 +32,28 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Esito accertamento di cittadinanza</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>193.7</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Esito accertamento di cittadinanza</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>193.7</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -549,1318 +552,1318 @@
         <v>5</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_006.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_006.xlsx
@@ -1621,7 +1621,7 @@
         <v>117</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>102</v>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_006.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_006.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="128">
   <si>
     <t>Sezione</t>
   </si>
@@ -182,6 +182,12 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
+  </si>
+  <si>
     <t>Nazionalità</t>
   </si>
   <si>
@@ -368,22 +374,22 @@
     <t>Data atto</t>
   </si>
   <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
     <t>Tipo registro</t>
   </si>
   <si>
     <t>tipologia</t>
-  </si>
-  <si>
-    <t>Parte</t>
-  </si>
-  <si>
-    <t>parte</t>
-  </si>
-  <si>
-    <t>Serie</t>
-  </si>
-  <si>
-    <t>serie</t>
   </si>
   <si>
     <t>Autorità mittente</t>
@@ -448,7 +454,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -954,7 +960,7 @@
         <v>56</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>34</v>
@@ -1046,7 +1052,7 @@
         <v>64</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>34</v>
@@ -1161,7 +1167,7 @@
         <v>74</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>34</v>
@@ -1224,19 +1230,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="C34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
@@ -1247,16 +1253,16 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>85</v>
@@ -1270,7 +1276,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>86</v>
@@ -1279,7 +1285,7 @@
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>87</v>
@@ -1293,7 +1299,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>88</v>
@@ -1302,7 +1308,7 @@
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>89</v>
@@ -1316,16 +1322,16 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>91</v>
@@ -1339,7 +1345,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>92</v>
@@ -1348,7 +1354,7 @@
         <v>33</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>93</v>
@@ -1362,7 +1368,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>94</v>
@@ -1371,7 +1377,7 @@
         <v>33</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>95</v>
@@ -1385,7 +1391,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>96</v>
@@ -1394,7 +1400,7 @@
         <v>33</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>97</v>
@@ -1408,7 +1414,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>98</v>
@@ -1417,7 +1423,7 @@
         <v>33</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>99</v>
@@ -1431,19 +1437,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="C43" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1454,16 +1460,16 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>105</v>
@@ -1477,7 +1483,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>106</v>
@@ -1486,7 +1492,7 @@
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>107</v>
@@ -1500,7 +1506,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>108</v>
@@ -1509,7 +1515,7 @@
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>109</v>
@@ -1523,7 +1529,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>110</v>
@@ -1532,7 +1538,7 @@
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>111</v>
@@ -1546,7 +1552,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>112</v>
@@ -1555,7 +1561,7 @@
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>113</v>
@@ -1569,7 +1575,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>114</v>
@@ -1578,10 +1584,10 @@
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>17</v>
+        <v>115</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1592,19 +1598,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>116</v>
+        <v>17</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1615,19 +1621,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>20</v>
+        <v>118</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1638,19 +1644,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>119</v>
+        <v>20</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1661,7 +1667,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>120</v>
@@ -1670,7 +1676,7 @@
         <v>33</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>121</v>
@@ -1684,7 +1690,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>122</v>
@@ -1693,7 +1699,7 @@
         <v>33</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>123</v>
@@ -1707,19 +1713,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1730,16 +1736,16 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>85</v>
@@ -1753,7 +1759,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>86</v>
@@ -1762,7 +1768,7 @@
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>87</v>
@@ -1776,19 +1782,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1799,16 +1805,16 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>95</v>
@@ -1822,16 +1828,16 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>97</v>
@@ -1845,16 +1851,16 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>99</v>
@@ -1863,6 +1869,29 @@
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_006.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_006.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="136">
   <si>
     <t>Sezione</t>
   </si>
@@ -240,6 +240,30 @@
   </si>
   <si>
     <t>indirizzoResidenza</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
   </si>
   <si>
     <t>flag dichiarante</t>
@@ -454,7 +478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H62"/>
+  <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1190,7 +1214,7 @@
         <v>76</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>34</v>
@@ -1213,7 +1237,7 @@
         <v>78</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>34</v>
@@ -1236,7 +1260,7 @@
         <v>80</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>34</v>
@@ -1253,19 +1277,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="C35" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -1276,19 +1300,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1299,19 +1323,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1322,19 +1346,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1345,16 +1369,16 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>93</v>
@@ -1368,16 +1392,16 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>95</v>
@@ -1391,16 +1415,16 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>97</v>
@@ -1414,16 +1438,16 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>99</v>
@@ -1437,7 +1461,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>100</v>
@@ -1446,7 +1470,7 @@
         <v>33</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>101</v>
@@ -1460,19 +1484,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="C44" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1483,19 +1507,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1506,19 +1530,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1529,19 +1553,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1552,16 +1576,16 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>113</v>
@@ -1575,7 +1599,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>114</v>
@@ -1584,7 +1608,7 @@
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>115</v>
@@ -1598,7 +1622,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>116</v>
@@ -1607,10 +1631,10 @@
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>17</v>
+        <v>117</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1621,19 +1645,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1644,19 +1668,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>20</v>
+        <v>121</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1667,19 +1691,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1690,19 +1714,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1713,19 +1737,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1736,19 +1760,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1759,19 +1783,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>87</v>
+        <v>129</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1782,19 +1806,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1805,19 +1829,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>95</v>
+        <v>133</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1828,19 +1852,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1851,19 +1875,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1874,24 +1898,116 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_006.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_006.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="138">
   <si>
     <t>Sezione</t>
   </si>
@@ -132,6 +132,12 @@
   </si>
   <si>
     <t>codiceFiscale</t>
+  </si>
+  <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
   </si>
   <si>
     <t>Sesso</t>
@@ -478,7 +484,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H66"/>
+  <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -800,7 +806,7 @@
         <v>40</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>34</v>
@@ -892,7 +898,7 @@
         <v>48</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>34</v>
@@ -1007,7 +1013,7 @@
         <v>58</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>34</v>
@@ -1099,7 +1105,7 @@
         <v>66</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>34</v>
@@ -1306,7 +1312,7 @@
         <v>84</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>34</v>
@@ -1369,19 +1375,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="C39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1392,16 +1398,16 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>95</v>
@@ -1415,7 +1421,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>96</v>
@@ -1424,7 +1430,7 @@
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>97</v>
@@ -1438,7 +1444,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>98</v>
@@ -1447,7 +1453,7 @@
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>99</v>
@@ -1461,16 +1467,16 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>101</v>
@@ -1484,7 +1490,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>102</v>
@@ -1493,7 +1499,7 @@
         <v>33</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>103</v>
@@ -1507,7 +1513,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>104</v>
@@ -1516,7 +1522,7 @@
         <v>33</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>105</v>
@@ -1530,7 +1536,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>106</v>
@@ -1539,7 +1545,7 @@
         <v>33</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>107</v>
@@ -1553,7 +1559,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>108</v>
@@ -1562,7 +1568,7 @@
         <v>33</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>109</v>
@@ -1576,19 +1582,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="C48" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1599,16 +1605,16 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>115</v>
@@ -1622,7 +1628,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>116</v>
@@ -1631,7 +1637,7 @@
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>117</v>
@@ -1645,7 +1651,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>118</v>
@@ -1654,7 +1660,7 @@
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>119</v>
@@ -1668,7 +1674,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>120</v>
@@ -1677,7 +1683,7 @@
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>121</v>
@@ -1691,7 +1697,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>122</v>
@@ -1700,7 +1706,7 @@
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>123</v>
@@ -1714,7 +1720,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>124</v>
@@ -1723,10 +1729,10 @@
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>17</v>
+        <v>125</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1737,19 +1743,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>126</v>
+        <v>17</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1760,19 +1766,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>127</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1783,19 +1789,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>129</v>
+        <v>20</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1806,7 +1812,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>130</v>
@@ -1815,7 +1821,7 @@
         <v>33</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>131</v>
@@ -1829,16 +1835,16 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>132</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>133</v>
@@ -1852,19 +1858,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1875,16 +1881,16 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>95</v>
@@ -1898,7 +1904,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>96</v>
@@ -1907,7 +1913,7 @@
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>97</v>
@@ -1921,19 +1927,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1944,16 +1950,16 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>105</v>
@@ -1967,16 +1973,16 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>106</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>107</v>
@@ -1990,16 +1996,16 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>109</v>
@@ -2008,6 +2014,29 @@
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_006.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_006.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="140">
   <si>
     <t>Sezione</t>
   </si>
@@ -204,6 +204,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato Residenza</t>
@@ -484,7 +490,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H67"/>
+  <dimension ref="A1:H68"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1082,7 +1088,7 @@
         <v>64</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>34</v>
@@ -1105,7 +1111,7 @@
         <v>66</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>34</v>
@@ -1335,7 +1341,7 @@
         <v>86</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>34</v>
@@ -1398,19 +1404,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="C40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1421,16 +1427,16 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>97</v>
@@ -1444,7 +1450,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>98</v>
@@ -1453,7 +1459,7 @@
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>99</v>
@@ -1467,7 +1473,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>100</v>
@@ -1476,7 +1482,7 @@
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>101</v>
@@ -1490,16 +1496,16 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>103</v>
@@ -1513,7 +1519,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>104</v>
@@ -1522,7 +1528,7 @@
         <v>33</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>105</v>
@@ -1536,7 +1542,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>106</v>
@@ -1545,7 +1551,7 @@
         <v>33</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>107</v>
@@ -1559,7 +1565,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>108</v>
@@ -1568,7 +1574,7 @@
         <v>33</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>109</v>
@@ -1582,7 +1588,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>110</v>
@@ -1591,7 +1597,7 @@
         <v>33</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>111</v>
@@ -1605,19 +1611,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="C49" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1628,16 +1634,16 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>117</v>
@@ -1651,7 +1657,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>118</v>
@@ -1660,7 +1666,7 @@
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>119</v>
@@ -1674,7 +1680,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>120</v>
@@ -1683,7 +1689,7 @@
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>121</v>
@@ -1697,7 +1703,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>122</v>
@@ -1706,7 +1712,7 @@
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>123</v>
@@ -1720,7 +1726,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>124</v>
@@ -1729,7 +1735,7 @@
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>125</v>
@@ -1743,7 +1749,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>126</v>
@@ -1752,10 +1758,10 @@
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>17</v>
+        <v>127</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1766,19 +1772,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>128</v>
+        <v>17</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1789,19 +1795,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>129</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1812,19 +1818,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1835,7 +1841,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>132</v>
@@ -1844,7 +1850,7 @@
         <v>33</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>133</v>
@@ -1858,16 +1864,16 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>134</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>135</v>
@@ -1881,19 +1887,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1904,16 +1910,16 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>97</v>
@@ -1927,7 +1933,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>98</v>
@@ -1936,7 +1942,7 @@
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>99</v>
@@ -1950,19 +1956,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1973,16 +1979,16 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>106</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>107</v>
@@ -1996,16 +2002,16 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>109</v>
@@ -2019,16 +2025,16 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>110</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>111</v>
@@ -2037,6 +2043,29 @@
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_006.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_006.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="142">
   <si>
     <t>Sezione</t>
   </si>
@@ -420,6 +420,12 @@
   </si>
   <si>
     <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
   </si>
   <si>
     <t>Tipo registro</t>
@@ -490,7 +496,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H68"/>
+  <dimension ref="A1:H69"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1893,7 +1899,7 @@
         <v>136</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>116</v>
@@ -1910,19 +1916,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1933,19 +1939,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1956,19 +1962,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1979,19 +1985,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2002,19 +2008,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2025,19 +2031,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2048,24 +2054,47 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E68" s="2" t="s">
+      <c r="C69" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="F68" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G68" s="2" t="s">
+      <c r="F69" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_006.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_006.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="144">
   <si>
     <t>Sezione</t>
   </si>
@@ -276,6 +276,12 @@
   </si>
   <si>
     <t>nomeComuneAIRE</t>
+  </si>
+  <si>
+    <t>Residenza al momento dell'evento originario</t>
+  </si>
+  <si>
+    <t>residenzaOriginaria</t>
   </si>
   <si>
     <t>flag dichiarante</t>
@@ -496,14 +502,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H69"/>
+  <dimension ref="A1:H70"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="17.65234375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="33.30859375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="40.984375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="49.65234375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
@@ -1370,7 +1376,7 @@
         <v>88</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>34</v>
@@ -1433,19 +1439,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="C41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1456,16 +1462,16 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>99</v>
@@ -1479,7 +1485,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>100</v>
@@ -1488,7 +1494,7 @@
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>101</v>
@@ -1502,7 +1508,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>102</v>
@@ -1511,7 +1517,7 @@
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>103</v>
@@ -1525,16 +1531,16 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>105</v>
@@ -1548,7 +1554,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>106</v>
@@ -1557,7 +1563,7 @@
         <v>33</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>107</v>
@@ -1571,7 +1577,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>108</v>
@@ -1580,7 +1586,7 @@
         <v>33</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>109</v>
@@ -1594,7 +1600,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>110</v>
@@ -1603,7 +1609,7 @@
         <v>33</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>111</v>
@@ -1617,7 +1623,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>112</v>
@@ -1626,7 +1632,7 @@
         <v>33</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>113</v>
@@ -1640,19 +1646,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="C50" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1663,16 +1669,16 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>119</v>
@@ -1686,7 +1692,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>120</v>
@@ -1695,7 +1701,7 @@
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>121</v>
@@ -1709,7 +1715,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>122</v>
@@ -1718,7 +1724,7 @@
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>123</v>
@@ -1732,7 +1738,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>124</v>
@@ -1741,7 +1747,7 @@
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>125</v>
@@ -1755,7 +1761,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>126</v>
@@ -1764,7 +1770,7 @@
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>127</v>
@@ -1778,7 +1784,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>128</v>
@@ -1787,10 +1793,10 @@
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>17</v>
+        <v>129</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1801,19 +1807,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>130</v>
+        <v>17</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1824,19 +1830,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>131</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>20</v>
+        <v>132</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1847,19 +1853,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>133</v>
+        <v>20</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1870,7 +1876,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>134</v>
@@ -1879,7 +1885,7 @@
         <v>33</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>135</v>
@@ -1893,7 +1899,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>136</v>
@@ -1902,7 +1908,7 @@
         <v>33</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>137</v>
@@ -1916,16 +1922,16 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>138</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>139</v>
@@ -1939,19 +1945,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1962,16 +1968,16 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>99</v>
@@ -1985,7 +1991,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>100</v>
@@ -1994,7 +2000,7 @@
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>101</v>
@@ -2008,19 +2014,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2031,16 +2037,16 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>109</v>
@@ -2054,16 +2060,16 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>110</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>111</v>
@@ -2077,16 +2083,16 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>112</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>113</v>
@@ -2095,6 +2101,29 @@
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_006.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_006.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="142">
   <si>
     <t>Sezione</t>
   </si>
@@ -276,12 +276,6 @@
   </si>
   <si>
     <t>nomeComuneAIRE</t>
-  </si>
-  <si>
-    <t>Residenza al momento dell'evento originario</t>
-  </si>
-  <si>
-    <t>residenzaOriginaria</t>
   </si>
   <si>
     <t>flag dichiarante</t>
@@ -502,14 +496,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H70"/>
+  <dimension ref="A1:H69"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="17.65234375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="40.984375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.30859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="49.65234375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
@@ -1376,7 +1370,7 @@
         <v>88</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>34</v>
@@ -1439,19 +1433,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1462,16 +1456,16 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>99</v>
@@ -1485,7 +1479,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>100</v>
@@ -1494,7 +1488,7 @@
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>101</v>
@@ -1508,7 +1502,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>102</v>
@@ -1517,7 +1511,7 @@
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>103</v>
@@ -1531,16 +1525,16 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>105</v>
@@ -1554,7 +1548,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>106</v>
@@ -1563,7 +1557,7 @@
         <v>33</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>107</v>
@@ -1577,7 +1571,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>108</v>
@@ -1586,7 +1580,7 @@
         <v>33</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>109</v>
@@ -1600,7 +1594,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>110</v>
@@ -1609,7 +1603,7 @@
         <v>33</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>111</v>
@@ -1623,7 +1617,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>112</v>
@@ -1632,7 +1626,7 @@
         <v>33</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>113</v>
@@ -1646,19 +1640,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1669,16 +1663,16 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>119</v>
@@ -1692,7 +1686,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>120</v>
@@ -1701,7 +1695,7 @@
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>121</v>
@@ -1715,7 +1709,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>122</v>
@@ -1724,7 +1718,7 @@
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>123</v>
@@ -1738,7 +1732,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>124</v>
@@ -1747,7 +1741,7 @@
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>125</v>
@@ -1761,7 +1755,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>126</v>
@@ -1770,7 +1764,7 @@
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>127</v>
@@ -1784,7 +1778,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>128</v>
@@ -1793,10 +1787,10 @@
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>129</v>
+        <v>17</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1807,19 +1801,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="E57" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1830,19 +1824,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>131</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1853,19 +1847,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="E59" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1876,7 +1870,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>134</v>
@@ -1885,7 +1879,7 @@
         <v>33</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>135</v>
@@ -1899,7 +1893,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>136</v>
@@ -1908,7 +1902,7 @@
         <v>33</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>137</v>
@@ -1922,16 +1916,16 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>138</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>139</v>
@@ -1945,19 +1939,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>141</v>
+        <v>97</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1968,16 +1962,16 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>99</v>
@@ -1991,7 +1985,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>100</v>
@@ -2000,7 +1994,7 @@
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>101</v>
@@ -2014,19 +2008,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2037,16 +2031,16 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>109</v>
@@ -2060,16 +2054,16 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>110</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>111</v>
@@ -2083,16 +2077,16 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>112</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>113</v>
@@ -2101,29 +2095,6 @@
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G70" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_006.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_006.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="149">
   <si>
     <t>Sezione</t>
   </si>
@@ -146,6 +146,18 @@
     <t>sesso</t>
   </si>
   <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
+  </si>
+  <si>
     <t>Data nascita</t>
   </si>
   <si>
@@ -372,6 +384,9 @@
   </si>
   <si>
     <t>idAnsc</t>
+  </si>
+  <si>
+    <t>opzionale</t>
   </si>
   <si>
     <t>Provincia registrazione</t>
@@ -502,7 +517,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H70"/>
+  <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -870,7 +885,7 @@
         <v>44</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>34</v>
@@ -893,7 +908,7 @@
         <v>46</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>34</v>
@@ -939,7 +954,7 @@
         <v>50</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>34</v>
@@ -962,7 +977,7 @@
         <v>52</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>34</v>
@@ -1054,7 +1069,7 @@
         <v>60</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>34</v>
@@ -1077,7 +1092,7 @@
         <v>62</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>34</v>
@@ -1100,7 +1115,7 @@
         <v>64</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>34</v>
@@ -1123,7 +1138,7 @@
         <v>66</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>34</v>
@@ -1399,7 +1414,7 @@
         <v>90</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>34</v>
@@ -1422,7 +1437,7 @@
         <v>92</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>34</v>
@@ -1462,19 +1477,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="C42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1485,19 +1500,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1508,16 +1523,16 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>103</v>
@@ -1531,7 +1546,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>104</v>
@@ -1540,7 +1555,7 @@
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>105</v>
@@ -1554,16 +1569,16 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>106</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>107</v>
@@ -1577,16 +1592,16 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>109</v>
@@ -1600,7 +1615,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>110</v>
@@ -1609,7 +1624,7 @@
         <v>33</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>111</v>
@@ -1623,7 +1638,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>112</v>
@@ -1632,7 +1647,7 @@
         <v>33</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>113</v>
@@ -1646,7 +1661,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>114</v>
@@ -1655,7 +1670,7 @@
         <v>33</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>115</v>
@@ -1669,19 +1684,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="C51" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1692,19 +1707,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1715,16 +1730,16 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>123</v>
@@ -1733,297 +1748,297 @@
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>18</v>
+        <v>124</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>18</v>
+        <v>124</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>18</v>
+        <v>124</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>17</v>
+        <v>132</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>18</v>
+        <v>124</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>18</v>
+        <v>124</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>18</v>
+        <v>124</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>18</v>
+        <v>124</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>137</v>
+        <v>20</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>18</v>
+        <v>124</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>18</v>
+        <v>124</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>18</v>
+        <v>124</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>97</v>
+        <v>143</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>99</v>
+        <v>144</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>18</v>
+        <v>124</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>101</v>
+        <v>146</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>18</v>
+        <v>124</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>103</v>
@@ -2037,19 +2052,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2060,19 +2075,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2083,7 +2098,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>112</v>
@@ -2092,7 +2107,7 @@
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>113</v>
@@ -2106,7 +2121,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>114</v>
@@ -2115,7 +2130,7 @@
         <v>33</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>115</v>
@@ -2124,6 +2139,52 @@
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
         <v>18</v>
       </c>
     </row>
